--- a/NavKart/shopping_data.xlsx
+++ b/NavKart/shopping_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanvi\git\repository\Infosys_TestNG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanvi\git\NavKart\NavKart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F8A49E-7926-4AD5-B5F8-35805EA6F376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E728C1-6082-4487-AFE2-56C7509F4D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{817F73A5-E89E-4B1F-9627-EE5FF9A34808}"/>
   </bookViews>
